--- a/data/glossary.xlsx
+++ b/data/glossary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9264"/>
+    <workbookView windowWidth="18468" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="glossary" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="285">
   <si>
     <t>Term</t>
   </si>
   <si>
-    <t>Ссылка на статью в Википедии</t>
+    <t>Ссылка на статью в английской  Википедии</t>
+  </si>
+  <si>
+    <t>Комментарии</t>
   </si>
   <si>
     <t>K-стратегия</t>
@@ -873,10 +876,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* &quot;-&quot;\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -884,6 +887,22 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -902,16 +921,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,8 +943,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -934,7 +953,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -949,54 +990,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1011,14 +1006,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1040,25 +1043,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,19 +1073,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,37 +1091,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1142,31 +1109,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,7 +1181,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,31 +1205,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,65 +1234,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1326,8 +1270,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1336,7 +1339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1354,130 +1357,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1807,1449 +1810,1453 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B286"/>
+  <dimension ref="A1:C286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="61.4444444444444" style="1" customWidth="1"/>
     <col min="2" max="2" width="61.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="27.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="273" spans="1:1">
       <c r="A273" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="274" spans="1:1">
       <c r="A274" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="275" spans="1:1">
       <c r="A275" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="276" spans="1:1">
       <c r="A276" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="277" spans="1:1">
       <c r="A277" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="278" spans="1:1">
       <c r="A278" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="279" spans="1:1">
       <c r="A279" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="280" spans="1:1">
       <c r="A280" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="281" spans="1:1">
       <c r="A281" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="282" spans="1:1">
       <c r="A282" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="283" spans="1:1">
       <c r="A283" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="284" spans="1:1">
       <c r="A284" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="285" spans="1:1">
       <c r="A285" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="286" spans="1:1">
       <c r="A286" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
